--- a/files/contas.xlsx
+++ b/files/contas.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>dg6053567@gmail.com</t>
-  </si>
-  <si>
-    <t>FuckYou162</t>
+    <t>p11.07link92@mozej.com</t>
   </si>
   <si>
     <t>p11.07link89@mozej.com</t>
@@ -30,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,17 +49,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,30 +111,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,22 +164,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -136,45 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,103 +194,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,79 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +385,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,40 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,32 +466,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,142 +490,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -967,7 +964,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -980,23 +977,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="dg6053567@gmail.com" tooltip="mailto:dg6053567@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="p11.07link92@mozej.com" tooltip="mailto:p11.07link92@mozej.com"/>
     <hyperlink ref="A2" r:id="rId2" display="p11.07link89@mozej.com"/>
     <hyperlink ref="B2" r:id="rId2" display="p11.07link89@mozej.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="p11.07link92@mozej.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
